--- a/eclipse-workspace/usga/AppiumProject/src/main/java/com/usga/qa/testdata/PlayersData.xlsx
+++ b/eclipse-workspace/usga/AppiumProject/src/main/java/com/usga/qa/testdata/PlayersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/someghana/eclipse-workspace/usga/AppiumProject/src/main/java/com/usga/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5642F8-A40F-2841-AD76-64FCD4524319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B2666-5D3D-514C-BBAD-865E3D40392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{60D50565-E426-404E-B29F-B2B46C3221AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Select Championship</t>
   </si>
@@ -47,34 +47,23 @@
     <t>RoundNo</t>
   </si>
   <si>
-    <t>Round 1</t>
-  </si>
-  <si>
-    <t>FavIcon</t>
+    <t>4</t>
   </si>
   <si>
     <t>U.S. Senior Open</t>
   </si>
   <si>
-    <t>Chris Kirk</t>
+    <t>Jason Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,17 +86,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FCA419-AF15-4D45-9370-4112EEE0532C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +419,7 @@
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,21 +427,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
